--- a/Code/Results/Cases/Case_2_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_77/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.171441175949695</v>
+        <v>0.5284097792228408</v>
       </c>
       <c r="C2">
-        <v>0.131299021739121</v>
+        <v>0.24424712609407</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.07821736474513585</v>
+        <v>0.1286485341705763</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.2428809820651381</v>
+        <v>0.5540818712052058</v>
       </c>
       <c r="H2">
-        <v>0.2607715938907305</v>
+        <v>0.7071370714610552</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.9505047266620181</v>
+        <v>0.2999255099659308</v>
       </c>
       <c r="L2">
-        <v>0.2476613974911857</v>
+        <v>0.1851602229599507</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.008256453858507</v>
+        <v>2.496253976096042</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019065065210697</v>
+        <v>0.4822756424105989</v>
       </c>
       <c r="C3">
-        <v>0.1346099089970245</v>
+        <v>0.2460792773768397</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.07371263286125895</v>
+        <v>0.128436951533601</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.2509877770614537</v>
+        <v>0.5619452859039384</v>
       </c>
       <c r="H3">
-        <v>0.2707616640024995</v>
+        <v>0.7146193146290969</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8331436299755808</v>
+        <v>0.2619185531828805</v>
       </c>
       <c r="L3">
-        <v>0.2181652385637278</v>
+        <v>0.1777248589608149</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.046009651394797</v>
+        <v>2.528357410731232</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9255920670740068</v>
+        <v>0.453990798660044</v>
       </c>
       <c r="C4">
-        <v>0.136774303003282</v>
+        <v>0.247282015458385</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07107194643602099</v>
+        <v>0.128379939886532</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.2567818502948214</v>
+        <v>0.5671717665763438</v>
       </c>
       <c r="H4">
-        <v>0.2774069049776884</v>
+        <v>0.7195230603105287</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7610013154581026</v>
+        <v>0.238498681436198</v>
       </c>
       <c r="L4">
-        <v>0.2002311524965279</v>
+        <v>0.1732488698059171</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.071983491948558</v>
+        <v>2.549553848343699</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8875125202560241</v>
+        <v>0.4424758190413627</v>
       </c>
       <c r="C5">
-        <v>0.1376890113696696</v>
+        <v>0.2477917427569416</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.070025937888051</v>
+        <v>0.1283750619643591</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.2593402702605836</v>
+        <v>0.5694016687474885</v>
       </c>
       <c r="H5">
-        <v>0.2802399893238459</v>
+        <v>0.7215992674799345</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7315755895313174</v>
+        <v>0.2289345714353317</v>
       </c>
       <c r="L5">
-        <v>0.1929633543462899</v>
+        <v>0.1714474437192024</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.083246130149064</v>
+        <v>2.558564810918128</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8811898429460143</v>
+        <v>0.4405644740710954</v>
       </c>
       <c r="C6">
-        <v>0.1378428626047992</v>
+        <v>0.2478775676903346</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06985402668130902</v>
+        <v>0.1283753612555145</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.2597767814963845</v>
+        <v>0.5697779835720951</v>
       </c>
       <c r="H6">
-        <v>0.2807178773855021</v>
+        <v>0.7219487255536698</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7266876487815495</v>
+        <v>0.22734525035996</v>
       </c>
       <c r="L6">
-        <v>0.1917588757429058</v>
+        <v>0.1711496849631686</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.085156546369646</v>
+        <v>2.560083613695696</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9250784797787617</v>
+        <v>0.4538354566564635</v>
       </c>
       <c r="C7">
-        <v>0.1367865071494876</v>
+        <v>0.2472888103972117</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0710577195616402</v>
+        <v>0.1283797997522704</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.2568155655812419</v>
+        <v>0.5672014347611274</v>
       </c>
       <c r="H7">
-        <v>0.2774446109236663</v>
+        <v>0.7195507453422465</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7606045880281869</v>
+        <v>0.2383697779092842</v>
       </c>
       <c r="L7">
-        <v>0.2001329775675487</v>
+        <v>0.1732244835930459</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.07213266962809</v>
+        <v>2.549673862255318</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.118877496775099</v>
+        <v>0.5124945605967071</v>
       </c>
       <c r="C8">
-        <v>0.132413099638736</v>
+        <v>0.2448627311471299</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0766372784207725</v>
+        <v>0.1285604634304072</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.2455018172077956</v>
+        <v>0.5567104533690852</v>
       </c>
       <c r="H8">
-        <v>0.2641079145645904</v>
+        <v>0.7096527092133869</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.9100515923128967</v>
+        <v>0.2868384151776411</v>
       </c>
       <c r="L8">
-        <v>0.2374520161430951</v>
+        <v>0.1825780254420835</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.020679091180611</v>
+        <v>2.507014998922187</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.500116422489953</v>
+        <v>0.6278247408028221</v>
       </c>
       <c r="C9">
-        <v>0.1248972490997353</v>
+        <v>0.2407205966691564</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.08863906694156398</v>
+        <v>0.1294923505423746</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.2301716916001197</v>
+        <v>0.5393020571075411</v>
       </c>
       <c r="H9">
-        <v>0.2421750070567228</v>
+        <v>0.692697666592899</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.202793012492805</v>
+        <v>0.3811985982644046</v>
       </c>
       <c r="L9">
-        <v>0.3122267237120013</v>
+        <v>0.2016256849989588</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.9430854705893807</v>
+        <v>2.435147365130376</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.781728831351785</v>
+        <v>0.7127073771032428</v>
       </c>
       <c r="C10">
-        <v>0.1200462623802494</v>
+        <v>0.2380500310172593</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0982010156077564</v>
+        <v>0.1305282992863326</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.2236385849511962</v>
+        <v>0.5284465344367177</v>
       </c>
       <c r="H10">
-        <v>0.228871319544659</v>
+        <v>0.6817348783814765</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.418180705493228</v>
+        <v>0.4500800247942607</v>
       </c>
       <c r="L10">
-        <v>0.3684181438361662</v>
+        <v>0.2160468241055753</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9019508847910913</v>
+        <v>2.389537756991942</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.910358992636191</v>
+        <v>0.7513486486080296</v>
       </c>
       <c r="C11">
-        <v>0.1179907831345943</v>
+        <v>0.2369155149208027</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1027355403465364</v>
+        <v>0.1310756986417871</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.2218227242934674</v>
+        <v>0.5239292575672181</v>
       </c>
       <c r="H11">
-        <v>0.2234852056492613</v>
+        <v>0.6770715088859944</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.516356234231637</v>
+        <v>0.4813141764478246</v>
       </c>
       <c r="L11">
-        <v>0.3943205738987245</v>
+        <v>0.2226994702938754</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0.8870753876759636</v>
+        <v>2.370351697121762</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.959159380073828</v>
+        <v>0.765984347166409</v>
       </c>
       <c r="C12">
-        <v>0.1172346841662701</v>
+        <v>0.2364974154299162</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.104481224965685</v>
+        <v>0.1312939142844911</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.2213128525699943</v>
+        <v>0.5222793150505964</v>
       </c>
       <c r="H12">
-        <v>0.2215463614134521</v>
+        <v>0.6753521210571662</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.553571297266473</v>
+        <v>0.4931267270023625</v>
       </c>
       <c r="L12">
-        <v>0.4041839923936976</v>
+        <v>0.2252318544717298</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0.8820290236309063</v>
+        <v>2.363311194702419</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.948645037165477</v>
+        <v>0.7628321646024858</v>
       </c>
       <c r="C13">
-        <v>0.1173965248133442</v>
+        <v>0.2365869489667958</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1041039573891176</v>
+        <v>0.131246431989247</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.2214145658619842</v>
+        <v>0.5226319602775504</v>
       </c>
       <c r="H13">
-        <v>0.2219593615777526</v>
+        <v>0.6757203527991535</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.545554502538238</v>
+        <v>0.4905833677928513</v>
       </c>
       <c r="L13">
-        <v>0.4020571991592163</v>
+        <v>0.224685876264445</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.8830891767862283</v>
+        <v>2.364817489289393</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.914371913492488</v>
+        <v>0.7525526796043494</v>
       </c>
       <c r="C14">
-        <v>0.1179281291187522</v>
+        <v>0.2368808870033021</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.102878574675497</v>
+        <v>0.1310934324973978</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.2217771458636193</v>
+        <v>0.5237922995622526</v>
       </c>
       <c r="H14">
-        <v>0.223323646510849</v>
+        <v>0.6769291213758564</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.519417115076806</v>
+        <v>0.4822863096950982</v>
       </c>
       <c r="L14">
-        <v>0.3951309121754605</v>
+        <v>0.2229075477501681</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.8866482547903587</v>
+        <v>2.369767963260358</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.893390963108317</v>
+        <v>0.7462565736511806</v>
       </c>
       <c r="C15">
-        <v>0.1182566675980965</v>
+        <v>0.2370624313673844</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1021317727179571</v>
+        <v>0.131001138314808</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.222022739444121</v>
+        <v>0.5245109431142936</v>
       </c>
       <c r="H15">
-        <v>0.2241725867041495</v>
+        <v>0.6776755861088901</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.503412488905667</v>
+        <v>0.4772021285971277</v>
       </c>
       <c r="L15">
-        <v>0.3908956656909197</v>
+        <v>0.2218199820721907</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.888905767671929</v>
+        <v>2.372829559425838</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.773334393429366</v>
+        <v>0.7101825601860412</v>
       </c>
       <c r="C16">
-        <v>0.1201836799801868</v>
+        <v>0.2381257878826091</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.09790855891831995</v>
+        <v>0.130494055761627</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.2237814870502959</v>
+        <v>0.5287502300168683</v>
       </c>
       <c r="H16">
-        <v>0.2292371343205843</v>
+        <v>0.6820461522846912</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.411769469043492</v>
+        <v>0.4480367190402319</v>
       </c>
       <c r="L16">
-        <v>0.366732696776964</v>
+        <v>0.2156139074678833</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9030031775606489</v>
+        <v>2.39082306195003</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.699828415789284</v>
+        <v>0.6880587832855269</v>
       </c>
       <c r="C17">
-        <v>0.1214049393899828</v>
+        <v>0.2387986738025134</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.09536645238670616</v>
+        <v>0.1302024632827816</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.2251644924390561</v>
+        <v>0.5314587970659517</v>
       </c>
       <c r="H17">
-        <v>0.2325180716697162</v>
+        <v>0.6848102405605374</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.355606262203906</v>
+        <v>0.4301184728015528</v>
       </c>
       <c r="L17">
-        <v>0.3520007226583886</v>
+        <v>0.2118302651122264</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.9126583699822817</v>
+        <v>2.402261718359185</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.65759796944738</v>
+        <v>0.6753364361325396</v>
       </c>
       <c r="C18">
-        <v>0.122121580325345</v>
+        <v>0.2391932638290655</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.09392156300685528</v>
+        <v>0.1300419150644743</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.2260680465554543</v>
+        <v>0.5330563083680744</v>
       </c>
       <c r="H18">
-        <v>0.2344675299502441</v>
+        <v>0.6864305359758731</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.323320335363206</v>
+        <v>0.4198029681089963</v>
       </c>
       <c r="L18">
-        <v>0.3435589812280853</v>
+        <v>0.2096627179232797</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.9185707068848075</v>
+        <v>2.40898793815083</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.643307292359111</v>
+        <v>0.6710293530423712</v>
       </c>
       <c r="C19">
-        <v>0.122366647036273</v>
+        <v>0.2393281654119193</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.09343525445703804</v>
+        <v>0.1299887879731934</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.2263921989946027</v>
+        <v>0.5336039985397676</v>
       </c>
       <c r="H19">
-        <v>0.2351381437841624</v>
+        <v>0.6869843729362302</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.312391612377979</v>
+        <v>0.4163087222275692</v>
       </c>
       <c r="L19">
-        <v>0.340706028207407</v>
+        <v>0.2089303220823382</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.9206331388035238</v>
+        <v>2.411290562157618</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.707648148974044</v>
+        <v>0.6904136279042632</v>
       </c>
       <c r="C20">
-        <v>0.1212734604436037</v>
+        <v>0.2387262613750778</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.09563526325229788</v>
+        <v>0.1302327620884505</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.2250060015241289</v>
+        <v>0.5311663645901987</v>
       </c>
       <c r="H20">
-        <v>0.2321623219444575</v>
+        <v>0.6845128457288396</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.361583032203981</v>
+        <v>0.4320268790970943</v>
       </c>
       <c r="L20">
-        <v>0.353565645153509</v>
+        <v>0.2122321403213761</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.911593164637523</v>
+        <v>2.401028837487033</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.924436162076262</v>
+        <v>0.7555719368936025</v>
       </c>
       <c r="C21">
-        <v>0.1177713755047023</v>
+        <v>0.2367942379845474</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.103237707737307</v>
+        <v>0.1311380757638858</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.2216657277918301</v>
+        <v>0.5234498327564836</v>
       </c>
       <c r="H21">
-        <v>0.222920146787331</v>
+        <v>0.67657281405981</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.527093180175456</v>
+        <v>0.4847237734829264</v>
       </c>
       <c r="L21">
-        <v>0.39716379757391</v>
+        <v>0.2234295293933144</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0.8855866561886785</v>
+        <v>2.368307785067842</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.066657809730884</v>
+        <v>0.7981742396340223</v>
       </c>
       <c r="C22">
-        <v>0.1156126045007895</v>
+        <v>0.2355986635659377</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1083738180387783</v>
+        <v>0.1317934335929074</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.2205246270881389</v>
+        <v>0.5187602153741224</v>
       </c>
       <c r="H22">
-        <v>0.2174697186213379</v>
+        <v>0.6716547452439698</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.635491086780746</v>
+        <v>0.5190756354554367</v>
       </c>
       <c r="L22">
-        <v>0.425979658412345</v>
+        <v>0.2308243899738756</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.8720272334126378</v>
+        <v>2.348233343811387</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.990696718780384</v>
+        <v>0.7754352771011668</v>
       </c>
       <c r="C23">
-        <v>0.1167527049447088</v>
+        <v>0.236230634717046</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.105616565440851</v>
+        <v>0.1314378369755822</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.2210343211195536</v>
+        <v>0.521230760388292</v>
       </c>
       <c r="H23">
-        <v>0.220323000077066</v>
+        <v>0.6742548003375148</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.577612721076321</v>
+        <v>0.5007497427102976</v>
       </c>
       <c r="L23">
-        <v>0.410568637067442</v>
+        <v>0.226870632042278</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0.8789375174020506</v>
+        <v>2.358827449519552</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.704112758073649</v>
+        <v>0.6893490122189974</v>
       </c>
       <c r="C24">
-        <v>0.1213328568790288</v>
+        <v>0.2387589749242593</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.09551368229915269</v>
+        <v>0.1302190419057325</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.2250773183443755</v>
+        <v>0.5312984477280978</v>
       </c>
       <c r="H24">
-        <v>0.2323229599057512</v>
+        <v>0.6846472007947</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.358880925747656</v>
+        <v>0.4311641323714923</v>
       </c>
       <c r="L24">
-        <v>0.3528580573245534</v>
+        <v>0.2120504284872737</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9120736207912756</v>
+        <v>2.401585755758717</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.396774845143852</v>
+        <v>0.5965962172230661</v>
       </c>
       <c r="C25">
-        <v>0.1268145134555354</v>
+        <v>0.2417755313379963</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.08526897083976692</v>
+        <v>0.1291784991568896</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.2335299627091842</v>
+        <v>0.5436721667612048</v>
       </c>
       <c r="H25">
-        <v>0.2476329166103142</v>
+        <v>0.6970218962581498</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.12358305861045</v>
+        <v>0.3557479206367873</v>
       </c>
       <c r="L25">
-        <v>0.2917994307109097</v>
+        <v>0.1963976012061437</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.9614152410778871</v>
+        <v>2.453327007466541</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_77/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_77/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.5284097792228408</v>
+        <v>1.171441175949809</v>
       </c>
       <c r="C2">
-        <v>0.24424712609407</v>
+        <v>0.131299021739359</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1286485341705763</v>
+        <v>0.07821736474515362</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.5540818712052058</v>
+        <v>0.2428809820652518</v>
       </c>
       <c r="H2">
-        <v>0.7071370714610552</v>
+        <v>0.2607715938907305</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,10 +448,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2999255099659308</v>
+        <v>0.9505047266620466</v>
       </c>
       <c r="L2">
-        <v>0.1851602229599507</v>
+        <v>0.2476613974911857</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.496253976096042</v>
+        <v>1.008256453858564</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4822756424105989</v>
+        <v>1.019065065210697</v>
       </c>
       <c r="C3">
-        <v>0.2460792773768397</v>
+        <v>0.134609908997259</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.128436951533601</v>
+        <v>0.07371263286122698</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.5619452859039384</v>
+        <v>0.2509877770614679</v>
       </c>
       <c r="H3">
-        <v>0.7146193146290969</v>
+        <v>0.2707616640026131</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2619185531828805</v>
+        <v>0.8331436299755808</v>
       </c>
       <c r="L3">
-        <v>0.1777248589608149</v>
+        <v>0.2181652385637847</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.528357410731232</v>
+        <v>1.046009651394797</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.453990798660044</v>
+        <v>0.925592067074092</v>
       </c>
       <c r="C4">
-        <v>0.247282015458385</v>
+        <v>0.1367743030035165</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.128379939886532</v>
+        <v>0.07107194643605652</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.5671717665763438</v>
+        <v>0.2567818502948143</v>
       </c>
       <c r="H4">
-        <v>0.7195230603105287</v>
+        <v>0.2774069049776884</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.238498681436198</v>
+        <v>0.7610013154579747</v>
       </c>
       <c r="L4">
-        <v>0.1732488698059171</v>
+        <v>0.2002311524964995</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.549553848343699</v>
+        <v>1.071983491948558</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4424758190413627</v>
+        <v>0.8875125202561378</v>
       </c>
       <c r="C5">
-        <v>0.2477917427569416</v>
+        <v>0.1376890113696625</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1283750619643591</v>
+        <v>0.07002593788805811</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.5694016687474885</v>
+        <v>0.2593402702605232</v>
       </c>
       <c r="H5">
-        <v>0.7215992674799345</v>
+        <v>0.2802399893239631</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2289345714353317</v>
+        <v>0.7315755895313174</v>
       </c>
       <c r="L5">
-        <v>0.1714474437192024</v>
+        <v>0.1929633543463467</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.558564810918128</v>
+        <v>1.083246130149078</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4405644740710954</v>
+        <v>0.8811898429460143</v>
       </c>
       <c r="C6">
-        <v>0.2478775676903346</v>
+        <v>0.1378428626050301</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1283753612555145</v>
+        <v>0.06985402668130902</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.5697779835720951</v>
+        <v>0.2597767814963454</v>
       </c>
       <c r="H6">
-        <v>0.7219487255536698</v>
+        <v>0.2807178773854915</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,10 +636,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.22734525035996</v>
+        <v>0.7266876487814073</v>
       </c>
       <c r="L6">
-        <v>0.1711496849631686</v>
+        <v>0.1917588757429058</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.560083613695696</v>
+        <v>1.085156546369632</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4538354566564635</v>
+        <v>0.9250784797787333</v>
       </c>
       <c r="C7">
-        <v>0.2472888103972117</v>
+        <v>0.1367865071497256</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.1283797997522704</v>
+        <v>0.07105771956167217</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.5672014347611274</v>
+        <v>0.2568155655813129</v>
       </c>
       <c r="H7">
-        <v>0.7195507453422465</v>
+        <v>0.2774446109236663</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,10 +683,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2383697779092842</v>
+        <v>0.7606045880283006</v>
       </c>
       <c r="L7">
-        <v>0.1732244835930459</v>
+        <v>0.2001329775674208</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.549673862255318</v>
+        <v>1.072132669628076</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5124945605967071</v>
+        <v>1.118877496775099</v>
       </c>
       <c r="C8">
-        <v>0.2448627311471299</v>
+        <v>0.1324130996386437</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1285604634304072</v>
+        <v>0.0766372784207654</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.5567104533690852</v>
+        <v>0.2455018172077885</v>
       </c>
       <c r="H8">
-        <v>0.7096527092133869</v>
+        <v>0.2641079145645833</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,10 +730,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2868384151776411</v>
+        <v>0.9100515923129819</v>
       </c>
       <c r="L8">
-        <v>0.1825780254420835</v>
+        <v>0.2374520161430524</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.507014998922187</v>
+        <v>1.020679091180654</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.6278247408028221</v>
+        <v>1.500116422490123</v>
       </c>
       <c r="C9">
-        <v>0.2407205966691564</v>
+        <v>0.1248972490996891</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1294923505423746</v>
+        <v>0.08863906694153201</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.5393020571075411</v>
+        <v>0.2301716916002405</v>
       </c>
       <c r="H9">
-        <v>0.692697666592899</v>
+        <v>0.2421750070567228</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3811985982644046</v>
+        <v>1.20279301249289</v>
       </c>
       <c r="L9">
-        <v>0.2016256849989588</v>
+        <v>0.3122267237120298</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.435147365130376</v>
+        <v>0.9430854705893807</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.7127073771032428</v>
+        <v>1.781728831351927</v>
       </c>
       <c r="C10">
-        <v>0.2380500310172593</v>
+        <v>0.1200462623802139</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1305282992863326</v>
+        <v>0.09820101560771732</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.5284465344367177</v>
+        <v>0.2236385849511819</v>
       </c>
       <c r="H10">
-        <v>0.6817348783814765</v>
+        <v>0.2288713195446519</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,10 +824,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4500800247942607</v>
+        <v>1.418180705493199</v>
       </c>
       <c r="L10">
-        <v>0.2160468241055753</v>
+        <v>0.3684181438361946</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.389537756991942</v>
+        <v>0.9019508847910629</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.7513486486080296</v>
+        <v>1.910358992636247</v>
       </c>
       <c r="C11">
-        <v>0.2369155149208027</v>
+        <v>0.1179907831343101</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1310756986417871</v>
+        <v>0.1027355403465116</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.5239292575672181</v>
+        <v>0.2218227242934745</v>
       </c>
       <c r="H11">
-        <v>0.6770715088859944</v>
+        <v>0.2234852056492613</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,10 +871,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4813141764478246</v>
+        <v>1.516356234231694</v>
       </c>
       <c r="L11">
-        <v>0.2226994702938754</v>
+        <v>0.394320573898753</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.370351697121762</v>
+        <v>0.887075387675992</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.765984347166409</v>
+        <v>1.959159380073828</v>
       </c>
       <c r="C12">
-        <v>0.2364974154299162</v>
+        <v>0.1172346841663412</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1312939142844911</v>
+        <v>0.1044812249656779</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.5222793150505964</v>
+        <v>0.221312852570037</v>
       </c>
       <c r="H12">
-        <v>0.6753521210571662</v>
+        <v>0.2215463614135516</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4931267270023625</v>
+        <v>1.553571297266558</v>
       </c>
       <c r="L12">
-        <v>0.2252318544717298</v>
+        <v>0.4041839923935697</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.363311194702419</v>
+        <v>0.8820290236309489</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.7628321646024858</v>
+        <v>1.94864503716542</v>
       </c>
       <c r="C13">
-        <v>0.2365869489667958</v>
+        <v>0.1173965248131239</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.131246431989247</v>
+        <v>0.104103957389114</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.5226319602775504</v>
+        <v>0.2214145658619842</v>
       </c>
       <c r="H13">
-        <v>0.6757203527991535</v>
+        <v>0.2219593615778805</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4905833677928513</v>
+        <v>1.545554502538266</v>
       </c>
       <c r="L13">
-        <v>0.224685876264445</v>
+        <v>0.402057199159259</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.364817489289393</v>
+        <v>0.8830891767862994</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.7525526796043494</v>
+        <v>1.914371913492516</v>
       </c>
       <c r="C14">
-        <v>0.2368808870033021</v>
+        <v>0.117928129118468</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1310934324973978</v>
+        <v>0.1028785746755183</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.5237922995622526</v>
+        <v>0.2217771458636122</v>
       </c>
       <c r="H14">
-        <v>0.6769291213758564</v>
+        <v>0.2233236465108632</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,10 +1012,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4822863096950982</v>
+        <v>1.51941711507672</v>
       </c>
       <c r="L14">
-        <v>0.2229075477501681</v>
+        <v>0.3951309121754178</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.369767963260358</v>
+        <v>0.8866482547903161</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.7462565736511806</v>
+        <v>1.893390963108288</v>
       </c>
       <c r="C15">
-        <v>0.2370624313673844</v>
+        <v>0.1182566675981533</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.131001138314808</v>
+        <v>0.10213177271795</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.5245109431142936</v>
+        <v>0.2220227394441849</v>
       </c>
       <c r="H15">
-        <v>0.6776755861088901</v>
+        <v>0.2241725867042632</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4772021285971277</v>
+        <v>1.503412488905667</v>
       </c>
       <c r="L15">
-        <v>0.2218199820721907</v>
+        <v>0.3908956656908202</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.372829559425838</v>
+        <v>0.8889057676719005</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.7101825601860412</v>
+        <v>1.773334393429309</v>
       </c>
       <c r="C16">
-        <v>0.2381257878826091</v>
+        <v>0.1201836799797817</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.130494055761627</v>
+        <v>0.09790855891832351</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.5287502300168683</v>
+        <v>0.2237814870502888</v>
       </c>
       <c r="H16">
-        <v>0.6820461522846912</v>
+        <v>0.2292371343205701</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,10 +1106,10 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4480367190402319</v>
+        <v>1.411769469043321</v>
       </c>
       <c r="L16">
-        <v>0.2156139074678833</v>
+        <v>0.3667326967768645</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.39082306195003</v>
+        <v>0.9030031775605778</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.6880587832855269</v>
+        <v>1.699828415789312</v>
       </c>
       <c r="C17">
-        <v>0.2387986738025134</v>
+        <v>0.1214049393895138</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1302024632827816</v>
+        <v>0.09536645238666352</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.5314587970659517</v>
+        <v>0.2251644924390064</v>
       </c>
       <c r="H17">
-        <v>0.6848102405605374</v>
+        <v>0.2325180716697091</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,10 +1153,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4301184728015528</v>
+        <v>1.35560626220385</v>
       </c>
       <c r="L17">
-        <v>0.2118302651122264</v>
+        <v>0.3520007226583317</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.402261718359185</v>
+        <v>0.9126583699823243</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.6753364361325396</v>
+        <v>1.657597969447238</v>
       </c>
       <c r="C18">
-        <v>0.2391932638290655</v>
+        <v>0.1221215803253983</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1300419150644743</v>
+        <v>0.09392156300684107</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.5330563083680744</v>
+        <v>0.2260680465553762</v>
       </c>
       <c r="H18">
-        <v>0.6864305359758731</v>
+        <v>0.2344675299501517</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.4198029681089963</v>
+        <v>1.323320335363178</v>
       </c>
       <c r="L18">
-        <v>0.2096627179232797</v>
+        <v>0.3435589812279858</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.40898793815083</v>
+        <v>0.9185707068848927</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.6710293530423712</v>
+        <v>1.643307292359168</v>
       </c>
       <c r="C19">
-        <v>0.2393281654119193</v>
+        <v>0.122366647036781</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1299887879731934</v>
+        <v>0.09343525445700251</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.5336039985397676</v>
+        <v>0.2263921989946027</v>
       </c>
       <c r="H19">
-        <v>0.6869843729362302</v>
+        <v>0.2351381437841553</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,10 +1247,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.4163087222275692</v>
+        <v>1.312391612377809</v>
       </c>
       <c r="L19">
-        <v>0.2089303220823382</v>
+        <v>0.3407060282074497</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.411290562157618</v>
+        <v>0.9206331388035096</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.6904136279042632</v>
+        <v>1.707648148973817</v>
       </c>
       <c r="C20">
-        <v>0.2387262613750778</v>
+        <v>0.121273460443561</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1302327620884505</v>
+        <v>0.09563526325230143</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.5311663645901987</v>
+        <v>0.2250060015241786</v>
       </c>
       <c r="H20">
-        <v>0.6845128457288396</v>
+        <v>0.2321623219444504</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4320268790970943</v>
+        <v>1.361583032204067</v>
       </c>
       <c r="L20">
-        <v>0.2122321403213761</v>
+        <v>0.3535656451535658</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.401028837487033</v>
+        <v>0.9115931646375799</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.7555719368936025</v>
+        <v>1.924436162076233</v>
       </c>
       <c r="C21">
-        <v>0.2367942379845474</v>
+        <v>0.1177713755049368</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1311380757638858</v>
+        <v>0.103237707737307</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.5234498327564836</v>
+        <v>0.2216657277918159</v>
       </c>
       <c r="H21">
-        <v>0.67657281405981</v>
+        <v>0.2229201467873381</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4847237734829264</v>
+        <v>1.527093180175456</v>
       </c>
       <c r="L21">
-        <v>0.2234295293933144</v>
+        <v>0.3971637975739952</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.368307785067842</v>
+        <v>0.8855866561886643</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.7981742396340223</v>
+        <v>2.066657809730941</v>
       </c>
       <c r="C22">
-        <v>0.2355986635659377</v>
+        <v>0.115612604500626</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1317934335929074</v>
+        <v>0.108373818038789</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.5187602153741224</v>
+        <v>0.2205246270881318</v>
       </c>
       <c r="H22">
-        <v>0.6716547452439698</v>
+        <v>0.2174697186213521</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,10 +1388,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.5190756354554367</v>
+        <v>1.635491086780803</v>
       </c>
       <c r="L22">
-        <v>0.2308243899738756</v>
+        <v>0.4259796584122881</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.348233343811387</v>
+        <v>0.8720272334127088</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.7754352771011668</v>
+        <v>1.990696718780384</v>
       </c>
       <c r="C23">
-        <v>0.236230634717046</v>
+        <v>0.1167527049444104</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1314378369755822</v>
+        <v>0.1056165654408652</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.521230760388292</v>
+        <v>0.2210343211195394</v>
       </c>
       <c r="H23">
-        <v>0.6742548003375148</v>
+        <v>0.2203230000769523</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.5007497427102976</v>
+        <v>1.577612721076321</v>
       </c>
       <c r="L23">
-        <v>0.226870632042278</v>
+        <v>0.4105686370673851</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.358827449519552</v>
+        <v>0.8789375174020222</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.6893490122189974</v>
+        <v>1.704112758073933</v>
       </c>
       <c r="C24">
-        <v>0.2387589749242593</v>
+        <v>0.1213328568789578</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1302190419057325</v>
+        <v>0.09551368229913137</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.5312984477280978</v>
+        <v>0.2250773183443755</v>
       </c>
       <c r="H24">
-        <v>0.6846472007947</v>
+        <v>0.2323229599057441</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,10 +1482,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4311641323714923</v>
+        <v>1.35888092574757</v>
       </c>
       <c r="L24">
-        <v>0.2120504284872737</v>
+        <v>0.3528580573245961</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.401585755758717</v>
+        <v>0.9120736207912614</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5965962172230661</v>
+        <v>1.396774845143852</v>
       </c>
       <c r="C25">
-        <v>0.2417755313379963</v>
+        <v>0.1268145134555283</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1291784991568896</v>
+        <v>0.08526897083975626</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.5436721667612048</v>
+        <v>0.2335299627091274</v>
       </c>
       <c r="H25">
-        <v>0.6970218962581498</v>
+        <v>0.2476329166103071</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,10 +1529,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3557479206367873</v>
+        <v>1.123583058610507</v>
       </c>
       <c r="L25">
-        <v>0.1963976012061437</v>
+        <v>0.291799430710924</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.453327007466541</v>
+        <v>0.9614152410778587</v>
       </c>
     </row>
   </sheetData>
